--- a/medicine/Enfance/Hermin_Dubus/Hermin_Dubus.xlsx
+++ b/medicine/Enfance/Hermin_Dubus/Hermin_Dubus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hermin Dubus est un instituteur français et auteur de livres pour enfants[1], né le 13 mars 1875[2] à Brombos (Oise) et mort le 1er décembre 1973 à Paris[3]. 
-Outre son activité d'instituteur, il a été un auteur de livres, chansons et saynètes pour enfants[4]. Ses ouvrages pour la jeunesse sont encore diffusés actuellement dans les librairies d'occasion et au cours de ventes en ligne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hermin Dubus est un instituteur français et auteur de livres pour enfants, né le 13 mars 1875 à Brombos (Oise) et mort le 1er décembre 1973 à Paris. 
+Outre son activité d'instituteur, il a été un auteur de livres, chansons et saynètes pour enfants. Ses ouvrages pour la jeunesse sont encore diffusés actuellement dans les librairies d'occasion et au cours de ventes en ligne.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>D'après Georges Cogniot</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Cogniot, dans son livre Parti pris, présente ainsi Hermin Dubus[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Cogniot, dans son livre Parti pris, présente ainsi Hermin Dubus :
 « En resserrant mes liens avec la famille Langevin, je fus amené à connaître aussi le père de Luce, l'instituteur et chansonnier Hermin Dubus, qui nous a quittés presque centenaire, à la fin de 1973. J'appréciais beaucoup sa compagnie. A côté des couplets de satire politique, pleins de verve, qu'il avait fait paraître sous le nom de Jean Social, il avait publié une quantité de recueils de chansons pour enfants. 
 En 1945, il s'intitulait lui-même inspecteur des écoles buissonnières, et retraité, il avait dans toute la France des amis qui le recevaient. Autrefois, il avait été très uni à Philéas Lebesgue, poète paysan du terroir picard, chez qui il allait bavarder à la veillée. Il avait milité à Beauvais aux côtés du professeur Émile Chauvelon, un des premiers communistes français, et d'Hubert Bourgin, qui dans ces temps lointains, était socialiste. 
 Pendant de très longues années, Hermin Dubus avait été bien connu et aimé des organisateurs de toutes les fêtes laïques. Dans son âge avancé, il conservait la jeunesse de cœur, la sensibilité, la fraîcheur de sentiment et également l'esprit et la malice qui l'avaient rendu populaire. Chez lui, l'amour des enfants avait débouché très tôt sur la lutte pour la justice sociale... »
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Trois noblesses, Paris, Société d'éditions littéraires, 1897.
 La Chanson vivante, Paris, Bibliothèque d'éducation, 1924.
@@ -614,7 +630,9 @@
           <t>Préface</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Chanson éducative, recueil de chants pour les cours moyens et supérieurs, et pour les cours complémentaires, préface par Hermin Dubus, musique de Paul et Georges Schlosser, Paris, Armand Colin, 1924.</t>
         </is>
@@ -644,7 +662,9 @@
           <t>Parolier</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chansons couleur du temps, préface de Vincent d'Indy, musique de M. Cadier, introduction de Philéas Lebesgue, poésies de Hermin Dubus, illustrations de Lola Anglada, Paris, Roudanez, 1927.
 Neuf contes de Perrault et de Madame d'Aulnoy : mis en chansons animées avec gestes, poésies de Hermin Dubus, musique de M. Cadier, Paris, Gallet, 1948.</t>
